--- a/javascript/react/mbo/pfc-calculator/doc/brochure.xlsx
+++ b/javascript/react/mbo/pfc-calculator/doc/brochure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yayoi/src/github.com/yo0o0oy/prac-program/javascript/react/mbo/pfc-calculator/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D2395A5A-77C6-0E48-82F0-5D5A571D6A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F331558-496C-9F49-9D6D-38366F458798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{5535A461-C68C-9243-83CE-2F33FA88A8E1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{5535A461-C68C-9243-83CE-2F33FA88A8E1}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,6 @@
     <definedName name="プロジェクト開始日">[1]BaseSheet1!$M$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -1224,13 +1223,6 @@
     <t>所属</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ショゾク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大和 弥生</t>
-    <rPh sb="0" eb="5">
-      <t xml:space="preserve">ヤマトヤヨイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1669,14 +1661,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1688,16 +1694,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1724,18 +1728,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6264,7 +6256,7 @@
   <dimension ref="A1:BN22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="108" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="Z14" sqref="Z14:AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
@@ -6273,76 +6265,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="45"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="48"/>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="49">
@@ -6350,71 +6342,71 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="48"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="54"/>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="28"/>
@@ -6468,13 +6460,13 @@
     </row>
     <row r="8" spans="1:66" ht="82">
       <c r="A8" s="4"/>
-      <c r="AI8" s="63" t="s">
+      <c r="AI8" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:66" ht="82">
       <c r="A9" s="4"/>
-      <c r="AI9" s="63" t="s">
+      <c r="AI9" s="43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6489,57 +6481,57 @@
     </row>
     <row r="13" spans="1:66">
       <c r="A13" s="4"/>
-      <c r="Z13" s="65" t="s">
+      <c r="Z13" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="65" t="s">
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="66"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="57"/>
     </row>
     <row r="14" spans="1:66">
       <c r="A14" s="4"/>
-      <c r="Z14" s="65" t="s">
+      <c r="Z14" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="66"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="57"/>
     </row>
     <row r="15" spans="1:66">
       <c r="A15" s="4"/>
@@ -6567,14 +6559,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AG14:AS14"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="Z14:AF14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:BN1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:BN2"/>
     <mergeCell ref="AG13:AS13"/>
-    <mergeCell ref="AG14:AS14"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="Z14:AF14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6587,8 +6579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E38D26-128A-9443-93CE-731B93BBC9FC}">
   <dimension ref="A1:BN43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="108" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="108" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
@@ -6597,76 +6589,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="45"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="48"/>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="49">
@@ -6674,71 +6666,71 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="48"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="54"/>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="28"/>
@@ -8138,7 +8130,7 @@
   <dimension ref="A1:BN64"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="112" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="AU24" sqref="AU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
@@ -8147,76 +8139,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="45"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="48"/>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="49">
@@ -8224,71 +8216,71 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="48"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="54"/>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="28"/>
@@ -9000,7 +8992,7 @@
       <c r="AS22" s="11"/>
       <c r="AT22" s="12"/>
       <c r="AU22" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AV22" s="13"/>
       <c r="AW22" s="13"/>
@@ -10352,7 +10344,7 @@
   <dimension ref="A1:BN64"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
@@ -10361,76 +10353,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="49">
@@ -10438,71 +10430,71 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="48"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="54"/>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="28"/>
@@ -11556,7 +11548,7 @@
       <c r="AS32" s="11"/>
       <c r="AT32" s="12"/>
       <c r="AU32" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AV32" s="13"/>
       <c r="AW32" s="22"/>
@@ -12908,7 +12900,7 @@
   <dimension ref="A1:BN64"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="112" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
@@ -12917,148 +12909,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="59" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
     </row>
     <row r="2" spans="1:66">
-      <c r="A2" s="56">
+      <c r="A2" s="60">
         <v>5</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="60" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="28"/>
@@ -14216,7 +14208,7 @@
       <c r="AS35" s="11"/>
       <c r="AT35" s="12"/>
       <c r="AU35" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AV35" s="13"/>
       <c r="AW35" s="13"/>
@@ -15256,7 +15248,7 @@
   <dimension ref="A1:BN64"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="112" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="D1" sqref="D1:BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
@@ -15265,76 +15257,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="49">
@@ -15342,71 +15334,71 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="28"/>
